--- a/data/Описание файлов .parquet.xlsx
+++ b/data/Описание файлов .parquet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Projects\AI\hackathons\datawagon2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{383394F0-D7E1-4FEE-977B-1B94887E44BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E26C1C6A-1694-4580-BC8A-2378B59B4391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="208">
   <si>
     <t>Категория</t>
   </si>
@@ -646,6 +646,9 @@
   </si>
   <si>
     <t>ohe</t>
+  </si>
+  <si>
+    <t>fk</t>
   </si>
 </sst>
 </file>
@@ -1027,8 +1030,8 @@
   </sheetPr>
   <dimension ref="A1:W998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D117" sqref="D117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1161,7 +1164,9 @@
       <c r="C5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>207</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -1219,7 +1224,9 @@
       <c r="C7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>206</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -1248,7 +1255,9 @@
       <c r="C8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>206</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -1277,7 +1286,9 @@
       <c r="C9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>206</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -1306,7 +1317,9 @@
       <c r="C10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>206</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -1393,7 +1406,9 @@
       <c r="C13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>207</v>
+      </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -1480,7 +1495,9 @@
       <c r="C16" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>206</v>
+      </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -1538,7 +1555,9 @@
       <c r="C18" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="2"/>
+      <c r="D18" s="2" t="s">
+        <v>206</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -1567,7 +1586,9 @@
       <c r="C19" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>207</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -1596,7 +1617,9 @@
       <c r="C20" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>206</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -1625,7 +1648,9 @@
       <c r="C21" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="2"/>
+      <c r="D21" s="2" t="s">
+        <v>207</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -1770,7 +1795,9 @@
       <c r="C26" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="2"/>
+      <c r="D26" s="2" t="s">
+        <v>207</v>
+      </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -1799,7 +1826,9 @@
       <c r="C27" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="2"/>
+      <c r="D27" s="2" t="s">
+        <v>207</v>
+      </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -1917,7 +1946,9 @@
       <c r="C31" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D31" s="2"/>
+      <c r="D31" s="2" t="s">
+        <v>206</v>
+      </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -1946,7 +1977,9 @@
       <c r="C32" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="2"/>
+      <c r="D32" s="2" t="s">
+        <v>206</v>
+      </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -2149,7 +2182,9 @@
       <c r="C39" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D39" s="2"/>
+      <c r="D39" s="2" t="s">
+        <v>206</v>
+      </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
@@ -2236,7 +2271,9 @@
       <c r="C42" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D42" s="2"/>
+      <c r="D42" s="2" t="s">
+        <v>206</v>
+      </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
@@ -2265,7 +2302,9 @@
       <c r="C43" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D43" s="2"/>
+      <c r="D43" s="2" t="s">
+        <v>206</v>
+      </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
@@ -2294,7 +2333,9 @@
       <c r="C44" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D44" s="2"/>
+      <c r="D44" s="2" t="s">
+        <v>206</v>
+      </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -2323,7 +2364,9 @@
       <c r="C45" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D45" s="2"/>
+      <c r="D45" s="2" t="s">
+        <v>206</v>
+      </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
@@ -2352,7 +2395,9 @@
       <c r="C46" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D46" s="2"/>
+      <c r="D46" s="2" t="s">
+        <v>206</v>
+      </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -2381,7 +2426,9 @@
       <c r="C47" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D47" s="2"/>
+      <c r="D47" s="2" t="s">
+        <v>206</v>
+      </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
@@ -2439,7 +2486,9 @@
       <c r="C49" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D49" s="2"/>
+      <c r="D49" s="2" t="s">
+        <v>207</v>
+      </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
@@ -2468,7 +2517,9 @@
       <c r="C50" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D50" s="2"/>
+      <c r="D50" s="2" t="s">
+        <v>206</v>
+      </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
@@ -2497,7 +2548,9 @@
       <c r="C51" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D51" s="2"/>
+      <c r="D51" s="2" t="s">
+        <v>206</v>
+      </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
@@ -2526,7 +2579,9 @@
       <c r="C52" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D52" s="2"/>
+      <c r="D52" s="2" t="s">
+        <v>206</v>
+      </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
@@ -2555,7 +2610,9 @@
       <c r="C53" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D53" s="2"/>
+      <c r="D53" s="2" t="s">
+        <v>206</v>
+      </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
@@ -2584,7 +2641,9 @@
       <c r="C54" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D54" s="2"/>
+      <c r="D54" s="2" t="s">
+        <v>206</v>
+      </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
@@ -2613,7 +2672,9 @@
       <c r="C55" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D55" s="2"/>
+      <c r="D55" s="2" t="s">
+        <v>206</v>
+      </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
@@ -2642,7 +2703,9 @@
       <c r="C56" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D56" s="2"/>
+      <c r="D56" s="2" t="s">
+        <v>207</v>
+      </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
@@ -2671,7 +2734,9 @@
       <c r="C57" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D57" s="2"/>
+      <c r="D57" s="2" t="s">
+        <v>207</v>
+      </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
@@ -2700,7 +2765,9 @@
       <c r="C58" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D58" s="2"/>
+      <c r="D58" s="2" t="s">
+        <v>206</v>
+      </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
@@ -2787,7 +2854,9 @@
       <c r="C61" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D61" s="2"/>
+      <c r="D61" s="2" t="s">
+        <v>207</v>
+      </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
@@ -2845,7 +2914,9 @@
       <c r="C63" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D63" s="2"/>
+      <c r="D63" s="2" t="s">
+        <v>206</v>
+      </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
@@ -2874,7 +2945,9 @@
       <c r="C64" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="D64" s="2"/>
+      <c r="D64" s="2" t="s">
+        <v>206</v>
+      </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
@@ -2903,7 +2976,9 @@
       <c r="C65" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D65" s="2"/>
+      <c r="D65" s="2" t="s">
+        <v>206</v>
+      </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
@@ -2932,7 +3007,9 @@
       <c r="C66" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="D66" s="2"/>
+      <c r="D66" s="2" t="s">
+        <v>206</v>
+      </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
@@ -2961,7 +3038,9 @@
       <c r="C67" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D67" s="2"/>
+      <c r="D67" s="2" t="s">
+        <v>206</v>
+      </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
@@ -2990,7 +3069,9 @@
       <c r="C68" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D68" s="2"/>
+      <c r="D68" s="2" t="s">
+        <v>206</v>
+      </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
@@ -3019,7 +3100,9 @@
       <c r="C69" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D69" s="2"/>
+      <c r="D69" s="2" t="s">
+        <v>206</v>
+      </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
@@ -3048,7 +3131,9 @@
       <c r="C70" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="D70" s="2"/>
+      <c r="D70" s="2" t="s">
+        <v>206</v>
+      </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
@@ -3077,7 +3162,9 @@
       <c r="C71" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D71" s="2"/>
+      <c r="D71" s="2" t="s">
+        <v>206</v>
+      </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
@@ -3106,7 +3193,9 @@
       <c r="C72" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="D72" s="2"/>
+      <c r="D72" s="2" t="s">
+        <v>206</v>
+      </c>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
@@ -3135,7 +3224,9 @@
       <c r="C73" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="D73" s="2"/>
+      <c r="D73" s="2" t="s">
+        <v>206</v>
+      </c>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
@@ -3164,7 +3255,9 @@
       <c r="C74" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="D74" s="2"/>
+      <c r="D74" s="2" t="s">
+        <v>207</v>
+      </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
@@ -3193,7 +3286,9 @@
       <c r="C75" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D75" s="2"/>
+      <c r="D75" s="2" t="s">
+        <v>206</v>
+      </c>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
@@ -3280,7 +3375,9 @@
       <c r="C78" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D78" s="2"/>
+      <c r="D78" s="2" t="s">
+        <v>207</v>
+      </c>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
@@ -3860,7 +3957,9 @@
       <c r="C98" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="D98" s="2"/>
+      <c r="D98" s="2" t="s">
+        <v>207</v>
+      </c>
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
@@ -3889,7 +3988,9 @@
       <c r="C99" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="D99" s="2"/>
+      <c r="D99" s="2" t="s">
+        <v>206</v>
+      </c>
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
@@ -3918,7 +4019,9 @@
       <c r="C100" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="D100" s="2"/>
+      <c r="D100" s="2" t="s">
+        <v>206</v>
+      </c>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
@@ -3947,7 +4050,9 @@
       <c r="C101" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="D101" s="2"/>
+      <c r="D101" s="2" t="s">
+        <v>206</v>
+      </c>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
@@ -3976,7 +4081,9 @@
       <c r="C102" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="D102" s="2"/>
+      <c r="D102" s="2" t="s">
+        <v>206</v>
+      </c>
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
@@ -4005,7 +4112,9 @@
       <c r="C103" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="D103" s="2"/>
+      <c r="D103" s="2" t="s">
+        <v>206</v>
+      </c>
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
@@ -4034,7 +4143,9 @@
       <c r="C104" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="D104" s="2"/>
+      <c r="D104" s="2" t="s">
+        <v>206</v>
+      </c>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
@@ -4063,7 +4174,9 @@
       <c r="C105" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="D105" s="2"/>
+      <c r="D105" s="2" t="s">
+        <v>206</v>
+      </c>
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
@@ -4092,7 +4205,9 @@
       <c r="C106" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="D106" s="2"/>
+      <c r="D106" s="2" t="s">
+        <v>206</v>
+      </c>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
@@ -4150,7 +4265,9 @@
       <c r="C108" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="D108" s="2"/>
+      <c r="D108" s="2" t="s">
+        <v>207</v>
+      </c>
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
@@ -4179,7 +4296,9 @@
       <c r="C109" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="D109" s="2"/>
+      <c r="D109" s="2" t="s">
+        <v>206</v>
+      </c>
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
@@ -4208,7 +4327,9 @@
       <c r="C110" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="D110" s="2"/>
+      <c r="D110" s="2" t="s">
+        <v>206</v>
+      </c>
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
       <c r="G110" s="2"/>
@@ -4237,7 +4358,9 @@
       <c r="C111" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="D111" s="2"/>
+      <c r="D111" s="2" t="s">
+        <v>206</v>
+      </c>
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
       <c r="G111" s="2"/>
@@ -4266,7 +4389,9 @@
       <c r="C112" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="D112" s="2"/>
+      <c r="D112" s="2" t="s">
+        <v>206</v>
+      </c>
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
       <c r="G112" s="2"/>
@@ -4295,7 +4420,9 @@
       <c r="C113" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="D113" s="2"/>
+      <c r="D113" s="2" t="s">
+        <v>206</v>
+      </c>
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
@@ -4324,7 +4451,9 @@
       <c r="C114" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="D114" s="2"/>
+      <c r="D114" s="2" t="s">
+        <v>206</v>
+      </c>
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
@@ -4353,7 +4482,9 @@
       <c r="C115" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="D115" s="2"/>
+      <c r="D115" s="2" t="s">
+        <v>206</v>
+      </c>
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
       <c r="G115" s="2"/>
@@ -4382,7 +4513,9 @@
       <c r="C116" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="D116" s="2"/>
+      <c r="D116" s="2" t="s">
+        <v>206</v>
+      </c>
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
       <c r="G116" s="2"/>

--- a/data/Описание файлов .parquet.xlsx
+++ b/data/Описание файлов .parquet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Projects\AI\hackathons\datawagon2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E26C1C6A-1694-4580-BC8A-2378B59B4391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E158E5-D28A-4FC7-91BB-ABA23CF20EC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="207">
   <si>
     <t>Категория</t>
   </si>
@@ -108,9 +108,6 @@
     <t>Дата последнего деповского ремонта</t>
   </si>
   <si>
-    <t>kod_pl_rem</t>
-  </si>
-  <si>
     <t>Код предстоящего планового ремонта</t>
   </si>
   <si>
@@ -543,9 +540,6 @@
     <t>Класс груза</t>
   </si>
   <si>
-    <t>skorport</t>
-  </si>
-  <si>
     <t>Признак скоропортящегося груза</t>
   </si>
   <si>
@@ -649,6 +643,9 @@
   </si>
   <si>
     <t>fk</t>
+  </si>
+  <si>
+    <t>skoroport</t>
   </si>
 </sst>
 </file>
@@ -1030,8 +1027,8 @@
   </sheetPr>
   <dimension ref="A1:W998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D117" sqref="D117"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1165,7 +1162,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -1225,7 +1222,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -1256,7 +1253,7 @@
         <v>14</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -1287,7 +1284,7 @@
         <v>16</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -1318,7 +1315,7 @@
         <v>18</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -1407,7 +1404,7 @@
         <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -1490,13 +1487,13 @@
     <row r="16" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
       <c r="B16" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="D16" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -1521,10 +1518,10 @@
     <row r="17" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19"/>
       <c r="B17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>30</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -1550,13 +1547,13 @@
     <row r="18" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19"/>
       <c r="B18" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>32</v>
-      </c>
       <c r="D18" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -1581,13 +1578,13 @@
     <row r="19" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19"/>
       <c r="B19" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>34</v>
-      </c>
       <c r="D19" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -1612,13 +1609,13 @@
     <row r="20" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="19"/>
       <c r="B20" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="D20" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -1643,13 +1640,13 @@
     <row r="21" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
       <c r="B21" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>38</v>
-      </c>
       <c r="D21" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -1674,10 +1671,10 @@
     <row r="22" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19"/>
       <c r="B22" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>40</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -1703,10 +1700,10 @@
     <row r="23" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="19"/>
       <c r="B23" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="9" t="s">
         <v>41</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>42</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -1761,10 +1758,10 @@
     <row r="25" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="19"/>
       <c r="B25" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>44</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -1790,13 +1787,13 @@
     <row r="26" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="19"/>
       <c r="B26" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>46</v>
-      </c>
       <c r="D26" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -1821,13 +1818,13 @@
     <row r="27" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="20"/>
       <c r="B27" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>48</v>
-      </c>
       <c r="D27" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -1851,11 +1848,11 @@
     </row>
     <row r="28" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -1910,13 +1907,13 @@
     <row r="30" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="19"/>
       <c r="B30" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>52</v>
-      </c>
       <c r="D30" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -1941,13 +1938,13 @@
     <row r="31" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="19"/>
       <c r="B31" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="9" t="s">
-        <v>54</v>
-      </c>
       <c r="D31" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -1978,7 +1975,7 @@
         <v>14</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -2003,10 +2000,10 @@
     <row r="33" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="19"/>
       <c r="B33" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>55</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>56</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -2032,10 +2029,10 @@
     <row r="34" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="19"/>
       <c r="B34" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -2061,10 +2058,10 @@
     <row r="35" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="19"/>
       <c r="B35" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>60</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -2090,10 +2087,10 @@
     <row r="36" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="19"/>
       <c r="B36" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>61</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>62</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -2119,10 +2116,10 @@
     <row r="37" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="19"/>
       <c r="B37" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" s="6" t="s">
         <v>63</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>64</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -2148,10 +2145,10 @@
     <row r="38" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="19"/>
       <c r="B38" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -2177,13 +2174,13 @@
     <row r="39" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="19"/>
       <c r="B39" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C39" s="6" t="s">
-        <v>68</v>
-      </c>
       <c r="D39" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -2208,10 +2205,10 @@
     <row r="40" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="19"/>
       <c r="B40" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>70</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -2237,10 +2234,10 @@
     <row r="41" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="19"/>
       <c r="B41" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>71</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>72</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -2266,13 +2263,13 @@
     <row r="42" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="19"/>
       <c r="B42" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C42" s="6" t="s">
-        <v>74</v>
-      </c>
       <c r="D42" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -2297,13 +2294,13 @@
     <row r="43" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="19"/>
       <c r="B43" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C43" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C43" s="6" t="s">
-        <v>76</v>
-      </c>
       <c r="D43" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -2328,13 +2325,13 @@
     <row r="44" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="19"/>
       <c r="B44" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C44" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C44" s="6" t="s">
-        <v>78</v>
-      </c>
       <c r="D44" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -2359,13 +2356,13 @@
     <row r="45" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="19"/>
       <c r="B45" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C45" s="6" t="s">
-        <v>80</v>
-      </c>
       <c r="D45" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -2390,13 +2387,13 @@
     <row r="46" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="19"/>
       <c r="B46" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C46" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C46" s="6" t="s">
-        <v>82</v>
-      </c>
       <c r="D46" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
@@ -2421,13 +2418,13 @@
     <row r="47" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="20"/>
       <c r="B47" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C47" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C47" s="9" t="s">
-        <v>84</v>
-      </c>
       <c r="D47" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
@@ -2451,11 +2448,11 @@
     </row>
     <row r="48" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
@@ -2487,7 +2484,7 @@
         <v>8</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -2512,14 +2509,12 @@
     <row r="50" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="19"/>
       <c r="B50" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C50" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C50" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>206</v>
-      </c>
+      <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
@@ -2549,7 +2544,7 @@
         <v>14</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
@@ -2574,13 +2569,13 @@
     <row r="52" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="19"/>
       <c r="B52" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
@@ -2605,13 +2600,13 @@
     <row r="53" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="19"/>
       <c r="B53" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C53" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C53" s="6" t="s">
-        <v>91</v>
-      </c>
       <c r="D53" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
@@ -2636,13 +2631,13 @@
     <row r="54" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="19"/>
       <c r="B54" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C54" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C54" s="6" t="s">
-        <v>93</v>
-      </c>
       <c r="D54" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
@@ -2667,13 +2662,13 @@
     <row r="55" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="19"/>
       <c r="B55" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C55" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C55" s="6" t="s">
-        <v>95</v>
-      </c>
       <c r="D55" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
@@ -2698,13 +2693,13 @@
     <row r="56" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="19"/>
       <c r="B56" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
@@ -2729,13 +2724,13 @@
     <row r="57" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="19"/>
       <c r="B57" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C57" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C57" s="6" t="s">
-        <v>98</v>
-      </c>
       <c r="D57" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
@@ -2760,13 +2755,13 @@
     <row r="58" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="19"/>
       <c r="B58" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C58" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C58" s="6" t="s">
-        <v>95</v>
-      </c>
       <c r="D58" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
@@ -2791,10 +2786,10 @@
     <row r="59" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="20"/>
       <c r="B59" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
@@ -2819,11 +2814,11 @@
     </row>
     <row r="60" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B60" s="4"/>
       <c r="C60" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
@@ -2855,7 +2850,7 @@
         <v>8</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
@@ -2880,10 +2875,10 @@
     <row r="62" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="19"/>
       <c r="B62" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
@@ -2909,13 +2904,13 @@
     <row r="63" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="19"/>
       <c r="B63" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C63" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C63" s="6" t="s">
-        <v>104</v>
-      </c>
       <c r="D63" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
@@ -2940,13 +2935,13 @@
     <row r="64" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="19"/>
       <c r="B64" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C64" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C64" s="6" t="s">
-        <v>106</v>
-      </c>
       <c r="D64" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
@@ -2971,13 +2966,13 @@
     <row r="65" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="19"/>
       <c r="B65" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C65" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C65" s="6" t="s">
-        <v>108</v>
-      </c>
       <c r="D65" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
@@ -3002,13 +2997,13 @@
     <row r="66" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="19"/>
       <c r="B66" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C66" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C66" s="6" t="s">
-        <v>110</v>
-      </c>
       <c r="D66" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
@@ -3033,13 +3028,13 @@
     <row r="67" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="19"/>
       <c r="B67" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C67" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C67" s="6" t="s">
-        <v>112</v>
-      </c>
       <c r="D67" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
@@ -3064,13 +3059,13 @@
     <row r="68" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="19"/>
       <c r="B68" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C68" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="C68" s="6" t="s">
-        <v>114</v>
-      </c>
       <c r="D68" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
@@ -3095,13 +3090,13 @@
     <row r="69" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="19"/>
       <c r="B69" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C69" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C69" s="6" t="s">
-        <v>116</v>
-      </c>
       <c r="D69" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
@@ -3126,13 +3121,13 @@
     <row r="70" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="19"/>
       <c r="B70" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C70" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C70" s="6" t="s">
-        <v>118</v>
-      </c>
       <c r="D70" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
@@ -3157,13 +3152,13 @@
     <row r="71" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="19"/>
       <c r="B71" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C71" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C71" s="6" t="s">
-        <v>120</v>
-      </c>
       <c r="D71" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
@@ -3188,13 +3183,13 @@
     <row r="72" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="19"/>
       <c r="B72" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C72" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C72" s="6" t="s">
-        <v>122</v>
-      </c>
       <c r="D72" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
@@ -3219,13 +3214,13 @@
     <row r="73" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="19"/>
       <c r="B73" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C73" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="C73" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="D73" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
@@ -3250,13 +3245,13 @@
     <row r="74" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="19"/>
       <c r="B74" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
@@ -3281,13 +3276,13 @@
     <row r="75" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="19"/>
       <c r="B75" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
@@ -3312,10 +3307,10 @@
     <row r="76" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="20"/>
       <c r="B76" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C76" s="6" t="s">
         <v>127</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>128</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -3340,11 +3335,11 @@
     </row>
     <row r="77" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B77" s="4"/>
       <c r="C77" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
@@ -3376,7 +3371,7 @@
         <v>8</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
@@ -3401,10 +3396,10 @@
     <row r="79" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="19"/>
       <c r="B79" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C79" s="6" t="s">
         <v>131</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>132</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
@@ -3430,10 +3425,10 @@
     <row r="80" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="19"/>
       <c r="B80" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C80" s="6" t="s">
         <v>133</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>134</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
@@ -3459,10 +3454,10 @@
     <row r="81" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="19"/>
       <c r="B81" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C81" s="6" t="s">
         <v>135</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>136</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
@@ -3488,10 +3483,10 @@
     <row r="82" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="19"/>
       <c r="B82" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C82" s="6" t="s">
         <v>137</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>138</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
@@ -3517,10 +3512,10 @@
     <row r="83" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="19"/>
       <c r="B83" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C83" s="6" t="s">
         <v>139</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>140</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
@@ -3546,10 +3541,10 @@
     <row r="84" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="19"/>
       <c r="B84" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C84" s="6" t="s">
         <v>141</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>142</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
@@ -3575,10 +3570,10 @@
     <row r="85" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="19"/>
       <c r="B85" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C85" s="6" t="s">
         <v>143</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>144</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
@@ -3604,10 +3599,10 @@
     <row r="86" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="19"/>
       <c r="B86" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C86" s="6" t="s">
         <v>145</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>146</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
@@ -3633,10 +3628,10 @@
     <row r="87" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="19"/>
       <c r="B87" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C87" s="6" t="s">
         <v>147</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>148</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
@@ -3662,10 +3657,10 @@
     <row r="88" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="19"/>
       <c r="B88" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C88" s="6" t="s">
         <v>149</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>150</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
@@ -3691,10 +3686,10 @@
     <row r="89" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="19"/>
       <c r="B89" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C89" s="6" t="s">
         <v>151</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>152</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
@@ -3720,10 +3715,10 @@
     <row r="90" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="19"/>
       <c r="B90" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C90" s="6" t="s">
         <v>153</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>154</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
@@ -3749,10 +3744,10 @@
     <row r="91" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="19"/>
       <c r="B91" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C91" s="6" t="s">
         <v>155</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>156</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
@@ -3778,10 +3773,10 @@
     <row r="92" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="19"/>
       <c r="B92" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C92" s="6" t="s">
         <v>157</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>158</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
@@ -3807,10 +3802,10 @@
     <row r="93" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="19"/>
       <c r="B93" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C93" s="6" t="s">
         <v>159</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>160</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
@@ -3836,10 +3831,10 @@
     <row r="94" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="19"/>
       <c r="B94" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C94" s="6" t="s">
         <v>161</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>162</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
@@ -3865,10 +3860,10 @@
     <row r="95" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="19"/>
       <c r="B95" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C95" s="6" t="s">
         <v>163</v>
-      </c>
-      <c r="C95" s="6" t="s">
-        <v>164</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
@@ -3894,10 +3889,10 @@
     <row r="96" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="20"/>
       <c r="B96" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C96" s="6" t="s">
         <v>165</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>166</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
@@ -3922,11 +3917,11 @@
     </row>
     <row r="97" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B97" s="4"/>
       <c r="C97" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
@@ -3952,13 +3947,13 @@
     <row r="98" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="19"/>
       <c r="B98" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
@@ -3983,13 +3978,13 @@
     <row r="99" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="19"/>
       <c r="B99" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C99" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="C99" s="6" t="s">
-        <v>171</v>
-      </c>
       <c r="D99" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
@@ -4014,13 +4009,13 @@
     <row r="100" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="19"/>
       <c r="B100" s="6" t="s">
-        <v>172</v>
+        <v>206</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
@@ -4045,13 +4040,13 @@
     <row r="101" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="19"/>
       <c r="B101" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
@@ -4076,13 +4071,13 @@
     <row r="102" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="19"/>
       <c r="B102" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
@@ -4107,13 +4102,13 @@
     <row r="103" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="19"/>
       <c r="B103" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
@@ -4138,13 +4133,13 @@
     <row r="104" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="19"/>
       <c r="B104" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
@@ -4169,13 +4164,13 @@
     <row r="105" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="19"/>
       <c r="B105" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
@@ -4200,13 +4195,13 @@
     <row r="106" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="20"/>
       <c r="B106" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
@@ -4230,11 +4225,11 @@
     </row>
     <row r="107" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="18" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B107" s="4"/>
       <c r="C107" s="11" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
@@ -4260,13 +4255,13 @@
     <row r="108" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="19"/>
       <c r="B108" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
@@ -4291,13 +4286,13 @@
     <row r="109" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="19"/>
       <c r="B109" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
@@ -4322,13 +4317,13 @@
     <row r="110" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="19"/>
       <c r="B110" s="6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
@@ -4353,13 +4348,13 @@
     <row r="111" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="19"/>
       <c r="B111" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
@@ -4384,13 +4379,13 @@
     <row r="112" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="19"/>
       <c r="B112" s="6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
@@ -4415,13 +4410,13 @@
     <row r="113" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="19"/>
       <c r="B113" s="6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
@@ -4446,13 +4441,13 @@
     <row r="114" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="19"/>
       <c r="B114" s="6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
@@ -4477,13 +4472,13 @@
     <row r="115" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="19"/>
       <c r="B115" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
@@ -4508,13 +4503,13 @@
     <row r="116" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="20"/>
       <c r="B116" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D116" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="C116" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>206</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
